--- a/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Matthias\Universität\SS2021\Software Engineering\g4t3\docs\timetracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEA33ED-DB1E-4FFF-B7D8-3C7518CD59B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A820C689-71FA-46B4-89A8-8DA1E9DC5FB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Gruppendiskussion der Ergebnisse und Korrektur</t>
+  </si>
+  <si>
+    <t>Finalisieren der Konzeptbeschreibung, Erstellen von Issues und Milestones</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -543,7 +546,7 @@
     <col min="1" max="1" width="10.59765625" customWidth="1"/>
     <col min="2" max="2" width="9.59765625" customWidth="1"/>
     <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="31.2">
@@ -701,14 +704,32 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="8">
+        <v>44271</v>
+      </c>
+      <c r="B12" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="8">
+        <v>44271</v>
+      </c>
+      <c r="B13" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Matthias\Universität\SS2021\Software Engineering\g4t3\docs\timetracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Matthias\Universität\SS2021\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A820C689-71FA-46B4-89A8-8DA1E9DC5FB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014F7351-6186-4256-BA5A-1F1F687B81A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -124,6 +124,45 @@
   </si>
   <si>
     <t>Finalisieren der Konzeptbeschreibung, Erstellen von Issues und Milestones</t>
+  </si>
+  <si>
+    <t>Festlegen REST Endpoints</t>
+  </si>
+  <si>
+    <t>Finalisierung REST Endpoints und Dokumentation mittels OpenAPI</t>
+  </si>
+  <si>
+    <t>Aufsetzen Angular Projekt</t>
+  </si>
+  <si>
+    <t>Projektplan erstellen</t>
+  </si>
+  <si>
+    <t>Angular Layout</t>
+  </si>
+  <si>
+    <t>Angular Settings und Profile Dialoge</t>
+  </si>
+  <si>
+    <t>Überarbeitung REST Dokumentation</t>
+  </si>
+  <si>
+    <t>Ergänzung View im Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular Mobile Layout </t>
+  </si>
+  <si>
+    <t>Teammeeting</t>
+  </si>
+  <si>
+    <t>Erweiterung REST Dokumentation</t>
+  </si>
+  <si>
+    <t>Angular Login/Register</t>
+  </si>
+  <si>
+    <t>Fix GIT Branches</t>
   </si>
 </sst>
 </file>
@@ -538,14 +577,14 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.59765625" customWidth="1"/>
     <col min="2" max="2" width="9.59765625" customWidth="1"/>
-    <col min="3" max="3" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -732,74 +771,200 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="8">
+        <v>44277</v>
+      </c>
+      <c r="B14" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="8">
+        <v>44281</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="8">
+        <v>44282</v>
+      </c>
+      <c r="B16" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="8">
+        <v>44282</v>
+      </c>
+      <c r="B17" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="8">
+        <v>44283</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="8">
+        <v>44283</v>
+      </c>
+      <c r="B19" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="8">
+        <v>44284</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B23" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="8">
+        <v>44288</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="8">
+        <v>44288</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="8">
+        <v>44288</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="8">
+        <v>44288</v>
+      </c>
+      <c r="B27" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Matthias\Universität\SS2021\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014F7351-6186-4256-BA5A-1F1F687B81A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBEA885-8266-4A05-8C41-C08F1D841896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>Datum</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>Fix GIT Branches</t>
+  </si>
+  <si>
+    <t>Angular REST Anbindung</t>
+  </si>
+  <si>
+    <t>Angular Authentifizierung</t>
+  </si>
+  <si>
+    <t>Angular Login/Layout Bugfix</t>
+  </si>
+  <si>
+    <t>Angular Einführung</t>
   </si>
 </sst>
 </file>
@@ -577,7 +589,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -967,44 +979,116 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="8">
+        <v>44288</v>
+      </c>
+      <c r="B28" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="8">
+        <v>44289</v>
+      </c>
+      <c r="B29" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="8">
+        <v>44290</v>
+      </c>
+      <c r="B30" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="8">
+        <v>44290</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="8">
+        <v>44290</v>
+      </c>
+      <c r="B32" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="8">
+        <v>44290</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="8">
+        <v>44292</v>
+      </c>
+      <c r="B34" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="8">
+        <v>44297</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Matthias\Universität\SS2021\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBEA885-8266-4A05-8C41-C08F1D841896}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1573623C-3DD8-4A30-B2C3-250DA15AE5D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
   <si>
     <t>Datum</t>
   </si>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>Angular Einführung</t>
+  </si>
+  <si>
+    <t>Angular Logout Bug fixing</t>
+  </si>
+  <si>
+    <t>Angular Settings Logik</t>
+  </si>
+  <si>
+    <t>Angular Admin Users</t>
+  </si>
+  <si>
+    <t>Einarbeitung Websockets</t>
+  </si>
+  <si>
+    <t>Angular User Profile</t>
+  </si>
+  <si>
+    <t>Überarbeitung REST Dokumentation und Anpassung Angular dafür</t>
+  </si>
+  <si>
+    <t>Angular Admin Expressions</t>
+  </si>
+  <si>
+    <t>Angular Admin Expressions - Import</t>
   </si>
 </sst>
 </file>
@@ -586,10 +610,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1091,69 +1115,186 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B36" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B37" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="8">
+        <v>44300</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="8">
+        <v>44300</v>
+      </c>
+      <c r="B40" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="8">
+        <v>44301</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B42" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B43" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B44" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B45" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="8">
+        <v>44303</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="8">
+        <v>44304</v>
+      </c>
+      <c r="B47" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="8">
+        <v>44304</v>
+      </c>
+      <c r="B48" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Matthias\Universität\SS2021\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1573623C-3DD8-4A30-B2C3-250DA15AE5D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A829D1-798B-44CF-A232-7051BC22B424}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>Angular Admin Expressions - Import</t>
+  </si>
+  <si>
+    <t>Workshop "Docker"</t>
+  </si>
+  <si>
+    <t>Angular Bug fixing</t>
+  </si>
+  <si>
+    <t>Angular Homepage</t>
+  </si>
+  <si>
+    <t>Angular Homepage mit Game Connection und Game Erstellung</t>
+  </si>
+  <si>
+    <t>Angular Game Erstellung</t>
   </si>
 </sst>
 </file>
@@ -610,10 +625,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1297,39 +1312,102 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="8">
+        <v>44306</v>
+      </c>
+      <c r="B49" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="8">
+        <v>44308</v>
+      </c>
+      <c r="B50" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="8">
+        <v>44308</v>
+      </c>
+      <c r="B51" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="8">
+        <v>44308</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="8">
+        <v>44309</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="8">
+        <v>44309</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="8">
+        <v>44311</v>
+      </c>
+      <c r="B55" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Matthias\Universität\SS2021\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A829D1-798B-44CF-A232-7051BC22B424}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C66AA2D-8C74-44E0-973B-8849F2EF8A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -214,6 +214,27 @@
   </si>
   <si>
     <t>Angular Game Erstellung</t>
+  </si>
+  <si>
+    <t>Angular Homepage mit Statistics</t>
+  </si>
+  <si>
+    <t>Angular Websocket Integrierung</t>
+  </si>
+  <si>
+    <t>Angular Admin Games</t>
+  </si>
+  <si>
+    <t>Angular Game</t>
+  </si>
+  <si>
+    <t>Angular Pre-Game</t>
+  </si>
+  <si>
+    <t>Angular Running-Game</t>
+  </si>
+  <si>
+    <t>Bugfixing Spielekommunikation</t>
   </si>
 </sst>
 </file>
@@ -625,10 +646,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1410,64 +1431,172 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="7"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="8">
+        <v>44312</v>
+      </c>
+      <c r="B56" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="8">
+        <v>44313</v>
+      </c>
+      <c r="B57" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="8">
+        <v>44314</v>
+      </c>
+      <c r="B58" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="8">
+        <v>44314</v>
+      </c>
+      <c r="B59" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="8">
+        <v>44314</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="8">
+        <v>44315</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="7"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="8">
+        <v>44315</v>
+      </c>
+      <c r="B62" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="7"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B63" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B64" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="7"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="8">
+        <v>44317</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="7"/>
-      <c r="D67" s="3"/>
+      <c r="A67" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B67" s="7">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Matthias\Universität\SS2021\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C66AA2D-8C74-44E0-973B-8849F2EF8A53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6511AE8-CFE1-4E83-BFAB-BAE097C3CF14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="68">
   <si>
     <t>Datum</t>
   </si>
@@ -235,6 +235,21 @@
   </si>
   <si>
     <t>Bugfixing Spielekommunikation</t>
+  </si>
+  <si>
+    <t>Angular Dockerisierung</t>
+  </si>
+  <si>
+    <t>Einrichtung Raspberry Script(s)</t>
+  </si>
+  <si>
+    <t>Websocket Disconnect-handling &amp; Verbesserungen</t>
+  </si>
+  <si>
+    <t>Angular Light Theme</t>
+  </si>
+  <si>
+    <t>Angular Verbesserungen</t>
   </si>
 </sst>
 </file>
@@ -646,10 +661,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1599,54 +1614,144 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="8"/>
-      <c r="B68" s="7"/>
-      <c r="D68" s="3"/>
+      <c r="A68" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B68" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="8"/>
-      <c r="B69" s="7"/>
-      <c r="D69" s="3"/>
+      <c r="A69" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B69" s="7">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="8"/>
-      <c r="B70" s="7"/>
-      <c r="D70" s="3"/>
+      <c r="A70" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B70" s="7">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="8"/>
-      <c r="B71" s="7"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B71" s="7">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="8"/>
-      <c r="B72" s="7"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B72" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="8"/>
-      <c r="B73" s="7"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B73" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="8"/>
-      <c r="B74" s="7"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B74" s="7">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="8"/>
-      <c r="B75" s="7"/>
-      <c r="D75" s="3"/>
+      <c r="A75" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B75" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="8"/>
-      <c r="B76" s="7"/>
-      <c r="D76" s="3"/>
+      <c r="A76" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B76" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="8"/>
-      <c r="B77" s="7"/>
-      <c r="D77" s="3"/>
+      <c r="A77" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B77" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Matthias\Universität\SS2021\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6511AE8-CFE1-4E83-BFAB-BAE097C3CF14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45AED04-8763-44A6-BEA0-CDE8051F8FEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="71">
   <si>
     <t>Datum</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>Angular Verbesserungen</t>
+  </si>
+  <si>
+    <t>Angular Running Game Details</t>
+  </si>
+  <si>
+    <t>Teammeeting Testdrehbuch</t>
+  </si>
+  <si>
+    <t>Angular Dice Mapping Verbesserung</t>
   </si>
 </sst>
 </file>
@@ -661,10 +670,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1744,7 +1753,7 @@
         <v>44325</v>
       </c>
       <c r="B77" s="7">
-        <v>0.1875</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1754,24 +1763,60 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="8"/>
-      <c r="B78" s="7"/>
-      <c r="D78" s="3"/>
+      <c r="A78" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B78" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="8"/>
-      <c r="B79" s="7"/>
-      <c r="D79" s="3"/>
+      <c r="A79" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B79" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="8"/>
-      <c r="B80" s="7"/>
-      <c r="D80" s="3"/>
+      <c r="A80" s="8">
+        <v>44328</v>
+      </c>
+      <c r="B80" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="8"/>
-      <c r="B81" s="7"/>
-      <c r="D81" s="3"/>
+      <c r="A81" s="8">
+        <v>44329</v>
+      </c>
+      <c r="B81" s="7">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Matthias\Universität\SS2021\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45AED04-8763-44A6-BEA0-CDE8051F8FEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE69D0-1ADC-4E41-9D76-8513E6FE99E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
   <si>
     <t>Datum</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>Angular Dice Mapping Verbesserung</t>
+  </si>
+  <si>
+    <t>Durchlesen und Korrigieren Abnahmetest</t>
+  </si>
+  <si>
+    <t>Systemtest</t>
+  </si>
+  <si>
+    <t>Abnahmetest für Gruppe 5</t>
   </si>
 </sst>
 </file>
@@ -670,10 +679,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1819,24 +1828,60 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="8"/>
-      <c r="B82" s="7"/>
-      <c r="D82" s="3"/>
+      <c r="A82" s="8">
+        <v>44333</v>
+      </c>
+      <c r="B82" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="8"/>
-      <c r="B83" s="7"/>
-      <c r="D83" s="3"/>
+      <c r="A83" s="8">
+        <v>44334</v>
+      </c>
+      <c r="B83" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="8"/>
-      <c r="B84" s="7"/>
-      <c r="D84" s="3"/>
+      <c r="A84" s="8">
+        <v>44335</v>
+      </c>
+      <c r="B84" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="8"/>
-      <c r="B85" s="7"/>
-      <c r="D85" s="3"/>
+      <c r="A85" s="8">
+        <v>44339</v>
+      </c>
+      <c r="B85" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Matthias\Universität\SS2021\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE69D0-1ADC-4E41-9D76-8513E6FE99E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2E67D1-46C1-4A0A-873E-4D4463F5772C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="77">
   <si>
     <t>Datum</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>Abnahmetest für Gruppe 5</t>
+  </si>
+  <si>
+    <t>Angular Enhancements</t>
+  </si>
+  <si>
+    <t>Angular User Settings Refactoring</t>
+  </si>
+  <si>
+    <t>Angular Running Game Fix</t>
   </si>
 </sst>
 </file>
@@ -682,7 +691,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomRight" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1884,24 +1893,60 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="8"/>
-      <c r="B86" s="7"/>
-      <c r="D86" s="3"/>
+      <c r="A86" s="8">
+        <v>44341</v>
+      </c>
+      <c r="B86" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="8"/>
-      <c r="B87" s="7"/>
-      <c r="D87" s="3"/>
+      <c r="A87" s="8">
+        <v>44343</v>
+      </c>
+      <c r="B87" s="7">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="8"/>
-      <c r="B88" s="7"/>
-      <c r="D88" s="3"/>
+      <c r="A88" s="8">
+        <v>44343</v>
+      </c>
+      <c r="B88" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="8"/>
-      <c r="B89" s="7"/>
-      <c r="D89" s="3"/>
+      <c r="A89" s="8">
+        <v>44344</v>
+      </c>
+      <c r="B89" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Matthias\Universität\SS2021\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2E67D1-46C1-4A0A-873E-4D4463F5772C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBAD71E-7BB5-49E8-A5D6-F4381AD58C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="80">
   <si>
     <t>Datum</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t>Angular Running Game Fix</t>
+  </si>
+  <si>
+    <t>Angular Running Game Bug</t>
+  </si>
+  <si>
+    <t>Angular Bug tracing</t>
+  </si>
+  <si>
+    <t>Sequenz Diagramme</t>
   </si>
 </sst>
 </file>
@@ -688,10 +697,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D90" sqref="D90"/>
+      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1949,34 +1958,88 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="8"/>
-      <c r="B90" s="7"/>
-      <c r="D90" s="3"/>
+      <c r="A90" s="8">
+        <v>44347</v>
+      </c>
+      <c r="B90" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="8"/>
-      <c r="B91" s="7"/>
-      <c r="D91" s="3"/>
+      <c r="A91" s="8">
+        <v>44350</v>
+      </c>
+      <c r="B91" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="8"/>
-      <c r="B92" s="7"/>
-      <c r="D92" s="3"/>
+      <c r="A92" s="8">
+        <v>44350</v>
+      </c>
+      <c r="B92" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="8"/>
-      <c r="B93" s="7"/>
-      <c r="D93" s="3"/>
+      <c r="A93" s="8">
+        <v>44352</v>
+      </c>
+      <c r="B93" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="8"/>
-      <c r="B94" s="7"/>
-      <c r="D94" s="3"/>
+      <c r="A94" s="8">
+        <v>44352</v>
+      </c>
+      <c r="B94" s="7">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="8"/>
-      <c r="B95" s="7"/>
-      <c r="D95" s="3"/>
+      <c r="A95" s="8">
+        <v>44353</v>
+      </c>
+      <c r="B95" s="7">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Matthias\Universität\SS2021\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBAD71E-7BB5-49E8-A5D6-F4381AD58C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D5EDAB-4A28-4008-B790-5C23F1AD6BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="83">
   <si>
     <t>Datum</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t>Sequenz Diagramme</t>
+  </si>
+  <si>
+    <t>Angular Bug Fixing</t>
+  </si>
+  <si>
+    <t>Dokumentation Frontend &amp; OpenAPI</t>
+  </si>
+  <si>
+    <t>Screenshots zu Konzeptbeschreibung hinzufügen</t>
   </si>
 </sst>
 </file>
@@ -700,7 +709,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D95" sqref="D95"/>
+      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2042,19 +2051,46 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="8"/>
-      <c r="B96" s="7"/>
-      <c r="D96" s="3"/>
+      <c r="A96" s="8">
+        <v>44359</v>
+      </c>
+      <c r="B96" s="7">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="8"/>
-      <c r="B97" s="7"/>
-      <c r="D97" s="3"/>
+      <c r="A97" s="8">
+        <v>44359</v>
+      </c>
+      <c r="B97" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="8"/>
-      <c r="B98" s="7"/>
-      <c r="D98" s="3"/>
+      <c r="A98" s="8">
+        <v>44360</v>
+      </c>
+      <c r="B98" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="8"/>

--- a/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
+++ b/docs/timetracking/Zeitaufzeichnung_Thalmann_Matthias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Matthias\Universität\SS2021\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D5EDAB-4A28-4008-B790-5C23F1AD6BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24AFF24-52A5-462A-9F55-436677762C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="83">
   <si>
     <t>Datum</t>
   </si>
@@ -706,10 +706,10 @@
   <dimension ref="A1:D1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2093,19 +2093,46 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="8"/>
-      <c r="B99" s="7"/>
-      <c r="D99" s="3"/>
+      <c r="A99" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B99" s="7">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="8"/>
-      <c r="B100" s="7"/>
-      <c r="D100" s="3"/>
+      <c r="A100" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B100" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="8"/>
-      <c r="B101" s="7"/>
-      <c r="D101" s="3"/>
+      <c r="A101" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B101" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="8"/>
